--- a/MEDIA/2998_拉亞直營營業額(2020-03-01~2020-03-31).xlsx
+++ b/MEDIA/2998_拉亞直營營業額(2020-03-01~2020-03-31).xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA32"/>
+  <dimension ref="A1:AA34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -514,34 +514,34 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1105</v>
+        <v>23260</v>
       </c>
       <c r="E3" t="n">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="F3" t="n">
-        <v>520</v>
+        <v>8160</v>
       </c>
       <c r="G3" t="n">
-        <v>47.1</v>
+        <v>35.1</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="I3" t="n">
-        <v>110</v>
+        <v>6420</v>
       </c>
       <c r="J3" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="K3" t="n">
         <v>10</v>
       </c>
-      <c r="K3" t="n">
-        <v>4</v>
-      </c>
       <c r="L3" t="n">
-        <v>475</v>
+        <v>1235</v>
       </c>
       <c r="M3" t="n">
-        <v>43</v>
+        <v>5.3</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -553,22 +553,22 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>4255</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>18.3</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>3190</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>13.7</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -580,10 +580,10 @@
         <v>0</v>
       </c>
       <c r="Z3" t="n">
-        <v>18</v>
+        <v>159</v>
       </c>
       <c r="AA3" t="n">
-        <v>61</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4">
@@ -603,34 +603,34 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>805</v>
+        <v>16700</v>
       </c>
       <c r="E4" t="n">
-        <v>3</v>
+        <v>71</v>
       </c>
       <c r="F4" t="n">
-        <v>100</v>
+        <v>8405</v>
       </c>
       <c r="G4" t="n">
-        <v>12.4</v>
+        <v>50.3</v>
       </c>
       <c r="H4" t="n">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="I4" t="n">
-        <v>475</v>
+        <v>5065</v>
       </c>
       <c r="J4" t="n">
-        <v>59</v>
+        <v>30.3</v>
       </c>
       <c r="K4" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="L4" t="n">
-        <v>230</v>
+        <v>470</v>
       </c>
       <c r="M4" t="n">
-        <v>28.6</v>
+        <v>2.8</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -642,22 +642,22 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>1550</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>1210</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -669,10 +669,10 @@
         <v>0</v>
       </c>
       <c r="Z4" t="n">
-        <v>20</v>
+        <v>181</v>
       </c>
       <c r="AA4" t="n">
-        <v>40</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5">
@@ -692,61 +692,61 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1440</v>
+        <v>20205</v>
       </c>
       <c r="E5" t="n">
-        <v>10</v>
+        <v>98</v>
       </c>
       <c r="F5" t="n">
-        <v>325</v>
+        <v>9330</v>
       </c>
       <c r="G5" t="n">
-        <v>22.6</v>
+        <v>46.2</v>
       </c>
       <c r="H5" t="n">
-        <v>6</v>
+        <v>76</v>
       </c>
       <c r="I5" t="n">
-        <v>330</v>
+        <v>5540</v>
       </c>
       <c r="J5" t="n">
-        <v>22.9</v>
+        <v>27.4</v>
       </c>
       <c r="K5" t="n">
+        <v>17</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1545</v>
+      </c>
+      <c r="M5" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>13</v>
+      </c>
+      <c r="R5" t="n">
+        <v>2855</v>
+      </c>
+      <c r="S5" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="T5" t="n">
         <v>7</v>
       </c>
-      <c r="L5" t="n">
-        <v>785</v>
-      </c>
-      <c r="M5" t="n">
-        <v>54.5</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>935</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>4.6</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -758,10 +758,10 @@
         <v>0</v>
       </c>
       <c r="Z5" t="n">
-        <v>23</v>
+        <v>211</v>
       </c>
       <c r="AA5" t="n">
-        <v>63</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6">
@@ -781,61 +781,61 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>2130</v>
+        <v>19805</v>
       </c>
       <c r="E6" t="n">
-        <v>14</v>
+        <v>104</v>
       </c>
       <c r="F6" t="n">
-        <v>575</v>
+        <v>8985</v>
       </c>
       <c r="G6" t="n">
-        <v>27</v>
+        <v>45.4</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>64</v>
       </c>
       <c r="I6" t="n">
-        <v>25</v>
+        <v>4465</v>
       </c>
       <c r="J6" t="n">
-        <v>1.2</v>
+        <v>22.5</v>
       </c>
       <c r="K6" t="n">
+        <v>22</v>
+      </c>
+      <c r="L6" t="n">
+        <v>2035</v>
+      </c>
+      <c r="M6" t="n">
+        <v>10.3</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>10</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1705</v>
+      </c>
+      <c r="S6" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="T6" t="n">
         <v>15</v>
       </c>
-      <c r="L6" t="n">
-        <v>1530</v>
-      </c>
-      <c r="M6" t="n">
-        <v>71.8</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0</v>
-      </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>2615</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>13.2</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -847,10 +847,10 @@
         <v>0</v>
       </c>
       <c r="Z6" t="n">
-        <v>30</v>
+        <v>215</v>
       </c>
       <c r="AA6" t="n">
-        <v>71</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7">
@@ -870,34 +870,34 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>815</v>
+        <v>16245</v>
       </c>
       <c r="E7" t="n">
-        <v>6</v>
+        <v>86</v>
       </c>
       <c r="F7" t="n">
-        <v>210</v>
+        <v>6645</v>
       </c>
       <c r="G7" t="n">
-        <v>25.8</v>
+        <v>40.9</v>
       </c>
       <c r="H7" t="n">
-        <v>8</v>
+        <v>71</v>
       </c>
       <c r="I7" t="n">
-        <v>290</v>
+        <v>5245</v>
       </c>
       <c r="J7" t="n">
-        <v>35.6</v>
+        <v>32.3</v>
       </c>
       <c r="K7" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="L7" t="n">
-        <v>315</v>
+        <v>1065</v>
       </c>
       <c r="M7" t="n">
-        <v>38.7</v>
+        <v>6.6</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
@@ -909,22 +909,22 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>1115</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>6.9</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>2175</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>13.4</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -936,10 +936,10 @@
         <v>0</v>
       </c>
       <c r="Z7" t="n">
-        <v>17</v>
+        <v>188</v>
       </c>
       <c r="AA7" t="n">
-        <v>48</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8">
@@ -959,34 +959,34 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>670</v>
+        <v>21670</v>
       </c>
       <c r="E8" t="n">
-        <v>4</v>
+        <v>95</v>
       </c>
       <c r="F8" t="n">
-        <v>175</v>
+        <v>9990</v>
       </c>
       <c r="G8" t="n">
-        <v>26.1</v>
+        <v>46.1</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>76</v>
       </c>
       <c r="I8" t="n">
-        <v>25</v>
+        <v>6095</v>
       </c>
       <c r="J8" t="n">
-        <v>3.7</v>
+        <v>28.1</v>
       </c>
       <c r="K8" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="L8" t="n">
-        <v>470</v>
+        <v>815</v>
       </c>
       <c r="M8" t="n">
-        <v>70.09999999999999</v>
+        <v>3.8</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -998,22 +998,22 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>1675</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>7.7</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>3095</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>14.3</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1025,10 +1025,10 @@
         <v>0</v>
       </c>
       <c r="Z8" t="n">
-        <v>11</v>
+        <v>209</v>
       </c>
       <c r="AA8" t="n">
-        <v>61</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9">
@@ -1048,34 +1048,34 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>795</v>
+        <v>26320</v>
       </c>
       <c r="E9" t="n">
-        <v>2</v>
+        <v>63</v>
       </c>
       <c r="F9" t="n">
-        <v>165</v>
+        <v>9735</v>
       </c>
       <c r="G9" t="n">
-        <v>20.8</v>
+        <v>37</v>
       </c>
       <c r="H9" t="n">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="I9" t="n">
-        <v>515</v>
+        <v>5985</v>
       </c>
       <c r="J9" t="n">
-        <v>64.8</v>
+        <v>22.7</v>
       </c>
       <c r="K9" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L9" t="n">
-        <v>115</v>
+        <v>880</v>
       </c>
       <c r="M9" t="n">
-        <v>14.5</v>
+        <v>3.3</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -1087,22 +1087,22 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>3875</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>14.7</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>5845</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>22.2</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1114,10 +1114,10 @@
         <v>0</v>
       </c>
       <c r="Z9" t="n">
-        <v>16</v>
+        <v>190</v>
       </c>
       <c r="AA9" t="n">
-        <v>50</v>
+        <v>139</v>
       </c>
     </row>
     <row r="10">
@@ -1137,34 +1137,34 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>935</v>
+        <v>28695</v>
       </c>
       <c r="E10" t="n">
-        <v>10</v>
+        <v>82</v>
       </c>
       <c r="F10" t="n">
-        <v>460</v>
+        <v>12490</v>
       </c>
       <c r="G10" t="n">
-        <v>49.2</v>
+        <v>43.5</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="I10" t="n">
-        <v>25</v>
+        <v>5725</v>
       </c>
       <c r="J10" t="n">
-        <v>2.7</v>
+        <v>20</v>
       </c>
       <c r="K10" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="L10" t="n">
-        <v>450</v>
+        <v>1460</v>
       </c>
       <c r="M10" t="n">
-        <v>48.1</v>
+        <v>5.1</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -1176,22 +1176,22 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>4805</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>16.7</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>4215</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>14.7</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1203,10 +1203,10 @@
         <v>0</v>
       </c>
       <c r="Z10" t="n">
-        <v>14</v>
+        <v>192</v>
       </c>
       <c r="AA10" t="n">
-        <v>67</v>
+        <v>149</v>
       </c>
     </row>
     <row r="11">
@@ -1226,34 +1226,34 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1800</v>
+        <v>22835</v>
       </c>
       <c r="E11" t="n">
-        <v>5</v>
+        <v>89</v>
       </c>
       <c r="F11" t="n">
-        <v>555</v>
+        <v>10155</v>
       </c>
       <c r="G11" t="n">
-        <v>30.8</v>
+        <v>44.5</v>
       </c>
       <c r="H11" t="n">
-        <v>8</v>
+        <v>88</v>
       </c>
       <c r="I11" t="n">
-        <v>400</v>
+        <v>6435</v>
       </c>
       <c r="J11" t="n">
-        <v>22.2</v>
+        <v>28.2</v>
       </c>
       <c r="K11" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="L11" t="n">
-        <v>845</v>
+        <v>1185</v>
       </c>
       <c r="M11" t="n">
-        <v>46.9</v>
+        <v>5.2</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -1265,22 +1265,22 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>2085</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>9.1</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>2975</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1292,10 +1292,10 @@
         <v>0</v>
       </c>
       <c r="Z11" t="n">
-        <v>19</v>
+        <v>214</v>
       </c>
       <c r="AA11" t="n">
-        <v>95</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12">
@@ -1315,34 +1315,34 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>860</v>
+        <v>21643</v>
       </c>
       <c r="E12" t="n">
-        <v>5</v>
+        <v>66</v>
       </c>
       <c r="F12" t="n">
-        <v>145</v>
+        <v>6265</v>
       </c>
       <c r="G12" t="n">
-        <v>16.9</v>
+        <v>28.9</v>
       </c>
       <c r="H12" t="n">
-        <v>9</v>
+        <v>83</v>
       </c>
       <c r="I12" t="n">
-        <v>425</v>
+        <v>9133</v>
       </c>
       <c r="J12" t="n">
-        <v>49.4</v>
+        <v>42.2</v>
       </c>
       <c r="K12" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="L12" t="n">
-        <v>290</v>
+        <v>620</v>
       </c>
       <c r="M12" t="n">
-        <v>33.7</v>
+        <v>2.9</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -1354,22 +1354,22 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>3065</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>14.2</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>2560</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>11.8</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
@@ -1381,10 +1381,10 @@
         <v>0</v>
       </c>
       <c r="Z12" t="n">
-        <v>18</v>
+        <v>185</v>
       </c>
       <c r="AA12" t="n">
-        <v>48</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13">
@@ -1404,61 +1404,61 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>1385</v>
+        <v>20875</v>
       </c>
       <c r="E13" t="n">
-        <v>4</v>
+        <v>73</v>
       </c>
       <c r="F13" t="n">
-        <v>310</v>
+        <v>8465</v>
       </c>
       <c r="G13" t="n">
-        <v>22.4</v>
+        <v>40.6</v>
       </c>
       <c r="H13" t="n">
-        <v>12</v>
+        <v>95</v>
       </c>
       <c r="I13" t="n">
-        <v>515</v>
+        <v>6010</v>
       </c>
       <c r="J13" t="n">
-        <v>37.2</v>
+        <v>28.8</v>
       </c>
       <c r="K13" t="n">
+        <v>22</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1830</v>
+      </c>
+      <c r="M13" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
         <v>7</v>
       </c>
-      <c r="L13" t="n">
-        <v>560</v>
-      </c>
-      <c r="M13" t="n">
-        <v>40.4</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>0</v>
-      </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>1555</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>3015</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1470,10 +1470,10 @@
         <v>0</v>
       </c>
       <c r="Z13" t="n">
-        <v>23</v>
+        <v>217</v>
       </c>
       <c r="AA13" t="n">
-        <v>60</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14">
@@ -1493,61 +1493,61 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>1350</v>
+        <v>17825</v>
       </c>
       <c r="E14" t="n">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="F14" t="n">
-        <v>145</v>
+        <v>6090</v>
       </c>
       <c r="G14" t="n">
-        <v>10.7</v>
+        <v>34.2</v>
       </c>
       <c r="H14" t="n">
+        <v>92</v>
+      </c>
+      <c r="I14" t="n">
+        <v>6280</v>
+      </c>
+      <c r="J14" t="n">
+        <v>35.2</v>
+      </c>
+      <c r="K14" t="n">
+        <v>7</v>
+      </c>
+      <c r="L14" t="n">
+        <v>655</v>
+      </c>
+      <c r="M14" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>9</v>
+      </c>
+      <c r="R14" t="n">
+        <v>2460</v>
+      </c>
+      <c r="S14" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="T14" t="n">
         <v>15</v>
       </c>
-      <c r="I14" t="n">
-        <v>835</v>
-      </c>
-      <c r="J14" t="n">
-        <v>61.9</v>
-      </c>
-      <c r="K14" t="n">
-        <v>5</v>
-      </c>
-      <c r="L14" t="n">
-        <v>370</v>
-      </c>
-      <c r="M14" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>2340</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>13.1</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1559,10 +1559,10 @@
         <v>0</v>
       </c>
       <c r="Z14" t="n">
-        <v>25</v>
+        <v>183</v>
       </c>
       <c r="AA14" t="n">
-        <v>54</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15">
@@ -1582,34 +1582,34 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>1135</v>
+        <v>17460</v>
       </c>
       <c r="E15" t="n">
-        <v>5</v>
+        <v>67</v>
       </c>
       <c r="F15" t="n">
-        <v>165</v>
+        <v>7290</v>
       </c>
       <c r="G15" t="n">
-        <v>14.5</v>
+        <v>41.8</v>
       </c>
       <c r="H15" t="n">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="I15" t="n">
-        <v>135</v>
+        <v>4555</v>
       </c>
       <c r="J15" t="n">
-        <v>11.9</v>
+        <v>26.1</v>
       </c>
       <c r="K15" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="L15" t="n">
-        <v>835</v>
+        <v>1635</v>
       </c>
       <c r="M15" t="n">
-        <v>73.59999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -1621,22 +1621,22 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>1270</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>7.3</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>2710</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -1648,21 +1648,21 @@
         <v>0</v>
       </c>
       <c r="Z15" t="n">
-        <v>16</v>
+        <v>170</v>
       </c>
       <c r="AA15" t="n">
-        <v>71</v>
+        <v>103</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2020-03-15</t>
+          <t>2020-03-14</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>日</t>
+          <t>六</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1671,34 +1671,34 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>1245</v>
+        <v>24360</v>
       </c>
       <c r="E16" t="n">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="F16" t="n">
-        <v>285</v>
+        <v>7695</v>
       </c>
       <c r="G16" t="n">
-        <v>22.9</v>
+        <v>31.6</v>
       </c>
       <c r="H16" t="n">
-        <v>10</v>
+        <v>66</v>
       </c>
       <c r="I16" t="n">
-        <v>450</v>
+        <v>6430</v>
       </c>
       <c r="J16" t="n">
-        <v>36.1</v>
+        <v>26.4</v>
       </c>
       <c r="K16" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="L16" t="n">
-        <v>510</v>
+        <v>1475</v>
       </c>
       <c r="M16" t="n">
-        <v>41</v>
+        <v>6.1</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -1710,22 +1710,22 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>3345</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>13.7</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>5415</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>22.2</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1737,21 +1737,21 @@
         <v>0</v>
       </c>
       <c r="Z16" t="n">
-        <v>16</v>
+        <v>180</v>
       </c>
       <c r="AA16" t="n">
-        <v>78</v>
+        <v>135</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2020-03-16</t>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>一</t>
+          <t>日</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1760,34 +1760,34 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>620</v>
+        <v>29140</v>
       </c>
       <c r="E17" t="n">
-        <v>3</v>
+        <v>61</v>
       </c>
       <c r="F17" t="n">
-        <v>85</v>
+        <v>9820</v>
       </c>
       <c r="G17" t="n">
-        <v>13.7</v>
+        <v>33.7</v>
       </c>
       <c r="H17" t="n">
-        <v>10</v>
+        <v>66</v>
       </c>
       <c r="I17" t="n">
-        <v>390</v>
+        <v>6680</v>
       </c>
       <c r="J17" t="n">
-        <v>62.9</v>
+        <v>22.9</v>
       </c>
       <c r="K17" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="L17" t="n">
-        <v>145</v>
+        <v>1365</v>
       </c>
       <c r="M17" t="n">
-        <v>23.4</v>
+        <v>4.7</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -1799,22 +1799,22 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>4815</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>6460</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>22.2</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1826,21 +1826,21 @@
         <v>0</v>
       </c>
       <c r="Z17" t="n">
-        <v>16</v>
+        <v>189</v>
       </c>
       <c r="AA17" t="n">
-        <v>39</v>
+        <v>154</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2020-03-17</t>
+          <t>2020-03-16</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>二</t>
+          <t>一</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1849,34 +1849,34 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>1040</v>
+        <v>18930</v>
       </c>
       <c r="E18" t="n">
+        <v>80</v>
+      </c>
+      <c r="F18" t="n">
+        <v>7945</v>
+      </c>
+      <c r="G18" t="n">
+        <v>42</v>
+      </c>
+      <c r="H18" t="n">
+        <v>78</v>
+      </c>
+      <c r="I18" t="n">
+        <v>5140</v>
+      </c>
+      <c r="J18" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="K18" t="n">
         <v>7</v>
       </c>
-      <c r="F18" t="n">
-        <v>220</v>
-      </c>
-      <c r="G18" t="n">
-        <v>21.2</v>
-      </c>
-      <c r="H18" t="n">
-        <v>9</v>
-      </c>
-      <c r="I18" t="n">
-        <v>420</v>
-      </c>
-      <c r="J18" t="n">
-        <v>40.4</v>
-      </c>
-      <c r="K18" t="n">
-        <v>6</v>
-      </c>
       <c r="L18" t="n">
-        <v>400</v>
+        <v>535</v>
       </c>
       <c r="M18" t="n">
-        <v>38.5</v>
+        <v>2.8</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -1888,22 +1888,22 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>1350</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>7.1</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>3960</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>20.9</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -1915,21 +1915,21 @@
         <v>0</v>
       </c>
       <c r="Z18" t="n">
-        <v>22</v>
+        <v>200</v>
       </c>
       <c r="AA18" t="n">
-        <v>47</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2020-03-18</t>
+          <t>2020-03-17</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>三</t>
+          <t>二</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1938,34 +1938,34 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>1620</v>
+        <v>20720</v>
       </c>
       <c r="E19" t="n">
-        <v>13</v>
+        <v>105</v>
       </c>
       <c r="F19" t="n">
-        <v>440</v>
+        <v>10250</v>
       </c>
       <c r="G19" t="n">
-        <v>27.2</v>
+        <v>49.5</v>
       </c>
       <c r="H19" t="n">
-        <v>4</v>
+        <v>64</v>
       </c>
       <c r="I19" t="n">
-        <v>145</v>
+        <v>4560</v>
       </c>
       <c r="J19" t="n">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="K19" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="L19" t="n">
-        <v>1035</v>
+        <v>1740</v>
       </c>
       <c r="M19" t="n">
-        <v>63.9</v>
+        <v>8.4</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -1977,22 +1977,22 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>1020</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>4.9</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>3150</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>15.2</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2004,21 +2004,21 @@
         <v>0</v>
       </c>
       <c r="Z19" t="n">
-        <v>29</v>
+        <v>211</v>
       </c>
       <c r="AA19" t="n">
-        <v>56</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2020-03-19</t>
+          <t>2020-03-18</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>四</t>
+          <t>三</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -2027,61 +2027,61 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1355</v>
+        <v>22825</v>
       </c>
       <c r="E20" t="n">
+        <v>101</v>
+      </c>
+      <c r="F20" t="n">
+        <v>9455</v>
+      </c>
+      <c r="G20" t="n">
+        <v>41.4</v>
+      </c>
+      <c r="H20" t="n">
+        <v>73</v>
+      </c>
+      <c r="I20" t="n">
+        <v>6030</v>
+      </c>
+      <c r="J20" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="K20" t="n">
+        <v>21</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1935</v>
+      </c>
+      <c r="M20" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
         <v>7</v>
       </c>
-      <c r="F20" t="n">
-        <v>210</v>
-      </c>
-      <c r="G20" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="H20" t="n">
-        <v>13</v>
-      </c>
-      <c r="I20" t="n">
-        <v>520</v>
-      </c>
-      <c r="J20" t="n">
-        <v>38.4</v>
-      </c>
-      <c r="K20" t="n">
-        <v>6</v>
-      </c>
-      <c r="L20" t="n">
-        <v>625</v>
-      </c>
-      <c r="M20" t="n">
-        <v>46.1</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>1745</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>3660</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2093,21 +2093,21 @@
         <v>0</v>
       </c>
       <c r="Z20" t="n">
-        <v>26</v>
+        <v>229</v>
       </c>
       <c r="AA20" t="n">
-        <v>52</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2020-03-20</t>
+          <t>2020-03-19</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>五</t>
+          <t>四</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -2116,34 +2116,34 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>1060</v>
+        <v>20930</v>
       </c>
       <c r="E21" t="n">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="F21" t="n">
-        <v>460</v>
+        <v>8465</v>
       </c>
       <c r="G21" t="n">
-        <v>43.4</v>
+        <v>40.4</v>
       </c>
       <c r="H21" t="n">
-        <v>5</v>
+        <v>81</v>
       </c>
       <c r="I21" t="n">
-        <v>205</v>
+        <v>4975</v>
       </c>
       <c r="J21" t="n">
-        <v>19.3</v>
+        <v>23.8</v>
       </c>
       <c r="K21" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L21" t="n">
-        <v>395</v>
+        <v>750</v>
       </c>
       <c r="M21" t="n">
-        <v>37.3</v>
+        <v>3.6</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -2155,22 +2155,22 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>2565</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>12.3</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>4175</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>19.9</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -2182,21 +2182,21 @@
         <v>0</v>
       </c>
       <c r="Z21" t="n">
-        <v>21</v>
+        <v>195</v>
       </c>
       <c r="AA21" t="n">
-        <v>50</v>
+        <v>107</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2020-03-21</t>
+          <t>2020-03-20</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>六</t>
+          <t>五</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -2205,34 +2205,34 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>1730</v>
+        <v>21685</v>
       </c>
       <c r="E22" t="n">
-        <v>2</v>
+        <v>95</v>
       </c>
       <c r="F22" t="n">
-        <v>75</v>
+        <v>10440</v>
       </c>
       <c r="G22" t="n">
-        <v>4.3</v>
+        <v>48.1</v>
       </c>
       <c r="H22" t="n">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="I22" t="n">
-        <v>605</v>
+        <v>4980</v>
       </c>
       <c r="J22" t="n">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="K22" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="L22" t="n">
-        <v>1050</v>
+        <v>1235</v>
       </c>
       <c r="M22" t="n">
-        <v>60.7</v>
+        <v>5.7</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -2244,22 +2244,22 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>1470</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>3560</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>16.4</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2271,21 +2271,21 @@
         <v>0</v>
       </c>
       <c r="Z22" t="n">
-        <v>22</v>
+        <v>206</v>
       </c>
       <c r="AA22" t="n">
-        <v>79</v>
+        <v>105</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2020-03-22</t>
+          <t>2020-03-21</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>日</t>
+          <t>六</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -2294,34 +2294,34 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>1415</v>
+        <v>23195</v>
       </c>
       <c r="E23" t="n">
-        <v>4</v>
+        <v>77</v>
       </c>
       <c r="F23" t="n">
-        <v>250</v>
+        <v>11805</v>
       </c>
       <c r="G23" t="n">
-        <v>17.7</v>
+        <v>50.9</v>
       </c>
       <c r="H23" t="n">
-        <v>8</v>
+        <v>61</v>
       </c>
       <c r="I23" t="n">
-        <v>250</v>
+        <v>5910</v>
       </c>
       <c r="J23" t="n">
-        <v>17.7</v>
+        <v>25.5</v>
       </c>
       <c r="K23" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="L23" t="n">
-        <v>915</v>
+        <v>1510</v>
       </c>
       <c r="M23" t="n">
-        <v>64.7</v>
+        <v>6.5</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -2333,22 +2333,22 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>1210</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>5.2</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>2760</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>11.9</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2360,21 +2360,21 @@
         <v>0</v>
       </c>
       <c r="Z23" t="n">
-        <v>18</v>
+        <v>172</v>
       </c>
       <c r="AA23" t="n">
-        <v>79</v>
+        <v>135</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2020-03-23</t>
+          <t>2020-03-22</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>一</t>
+          <t>日</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -2383,34 +2383,34 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>1450</v>
+        <v>28485</v>
       </c>
       <c r="E24" t="n">
-        <v>4</v>
+        <v>78</v>
       </c>
       <c r="F24" t="n">
-        <v>110</v>
+        <v>10915</v>
       </c>
       <c r="G24" t="n">
-        <v>7.6</v>
+        <v>38.3</v>
       </c>
       <c r="H24" t="n">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="I24" t="n">
-        <v>370</v>
+        <v>6295</v>
       </c>
       <c r="J24" t="n">
-        <v>25.5</v>
+        <v>22.1</v>
       </c>
       <c r="K24" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L24" t="n">
-        <v>970</v>
+        <v>1555</v>
       </c>
       <c r="M24" t="n">
-        <v>66.90000000000001</v>
+        <v>5.5</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -2422,22 +2422,22 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>4795</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>16.8</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>4925</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>17.3</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -2449,21 +2449,21 @@
         <v>0</v>
       </c>
       <c r="Z24" t="n">
-        <v>26</v>
+        <v>213</v>
       </c>
       <c r="AA24" t="n">
-        <v>56</v>
+        <v>134</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2020-03-24</t>
+          <t>2020-03-23</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>二</t>
+          <t>一</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -2472,34 +2472,34 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>1200</v>
+        <v>20070</v>
       </c>
       <c r="E25" t="n">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="F25" t="n">
-        <v>560</v>
+        <v>7895</v>
       </c>
       <c r="G25" t="n">
-        <v>46.7</v>
+        <v>39.3</v>
       </c>
       <c r="H25" t="n">
-        <v>3</v>
+        <v>84</v>
       </c>
       <c r="I25" t="n">
-        <v>105</v>
+        <v>5280</v>
       </c>
       <c r="J25" t="n">
-        <v>8.800000000000001</v>
+        <v>26.3</v>
       </c>
       <c r="K25" t="n">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="L25" t="n">
-        <v>535</v>
+        <v>2225</v>
       </c>
       <c r="M25" t="n">
-        <v>44.6</v>
+        <v>11.1</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -2511,22 +2511,22 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>485</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>4185</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>20.9</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2538,21 +2538,21 @@
         <v>0</v>
       </c>
       <c r="Z25" t="n">
-        <v>22</v>
+        <v>207</v>
       </c>
       <c r="AA25" t="n">
-        <v>55</v>
+        <v>97</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2020-03-26</t>
+          <t>2020-03-24</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>四</t>
+          <t>二</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -2561,34 +2561,34 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>1520</v>
+        <v>18395</v>
       </c>
       <c r="E26" t="n">
-        <v>6</v>
+        <v>88</v>
       </c>
       <c r="F26" t="n">
-        <v>225</v>
+        <v>8070</v>
       </c>
       <c r="G26" t="n">
-        <v>14.8</v>
+        <v>43.9</v>
       </c>
       <c r="H26" t="n">
-        <v>8</v>
+        <v>67</v>
       </c>
       <c r="I26" t="n">
-        <v>405</v>
+        <v>4725</v>
       </c>
       <c r="J26" t="n">
-        <v>26.6</v>
+        <v>25.7</v>
       </c>
       <c r="K26" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="L26" t="n">
-        <v>890</v>
+        <v>1050</v>
       </c>
       <c r="M26" t="n">
-        <v>58.6</v>
+        <v>5.7</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -2600,22 +2600,22 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>440</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>4110</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>22.3</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2627,21 +2627,21 @@
         <v>0</v>
       </c>
       <c r="Z26" t="n">
-        <v>21</v>
+        <v>199</v>
       </c>
       <c r="AA26" t="n">
-        <v>72</v>
+        <v>92</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2020-03-27</t>
+          <t>2020-03-25</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>五</t>
+          <t>三</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -2650,61 +2650,61 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>1320</v>
+        <v>17330</v>
       </c>
       <c r="E27" t="n">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="F27" t="n">
-        <v>465</v>
+        <v>6740</v>
       </c>
       <c r="G27" t="n">
-        <v>35.2</v>
+        <v>38.9</v>
       </c>
       <c r="H27" t="n">
-        <v>4</v>
+        <v>91</v>
       </c>
       <c r="I27" t="n">
-        <v>155</v>
+        <v>5915</v>
       </c>
       <c r="J27" t="n">
-        <v>11.7</v>
+        <v>34.1</v>
       </c>
       <c r="K27" t="n">
+        <v>12</v>
+      </c>
+      <c r="L27" t="n">
+        <v>990</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q27" t="n">
         <v>5</v>
       </c>
-      <c r="L27" t="n">
-        <v>700</v>
-      </c>
-      <c r="M27" t="n">
-        <v>53</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>0</v>
-      </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>1010</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>5.8</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>2675</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>15.4</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
@@ -2716,21 +2716,21 @@
         <v>0</v>
       </c>
       <c r="Z27" t="n">
-        <v>19</v>
+        <v>186</v>
       </c>
       <c r="AA27" t="n">
-        <v>69</v>
+        <v>93</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2020-03-28</t>
+          <t>2020-03-26</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>六</t>
+          <t>四</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -2739,61 +2739,61 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>1135</v>
+        <v>20345</v>
       </c>
       <c r="E28" t="n">
+        <v>71</v>
+      </c>
+      <c r="F28" t="n">
+        <v>7505</v>
+      </c>
+      <c r="G28" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="H28" t="n">
+        <v>98</v>
+      </c>
+      <c r="I28" t="n">
+        <v>5995</v>
+      </c>
+      <c r="J28" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="K28" t="n">
+        <v>15</v>
+      </c>
+      <c r="L28" t="n">
+        <v>1520</v>
+      </c>
+      <c r="M28" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
         <v>3</v>
       </c>
-      <c r="F28" t="n">
-        <v>100</v>
-      </c>
-      <c r="G28" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="H28" t="n">
-        <v>7</v>
-      </c>
-      <c r="I28" t="n">
-        <v>430</v>
-      </c>
-      <c r="J28" t="n">
-        <v>37.9</v>
-      </c>
-      <c r="K28" t="n">
-        <v>6</v>
-      </c>
-      <c r="L28" t="n">
-        <v>605</v>
-      </c>
-      <c r="M28" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="n">
-        <v>0</v>
-      </c>
-      <c r="P28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>0</v>
-      </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>685</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>4640</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>22.8</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2805,21 +2805,21 @@
         <v>0</v>
       </c>
       <c r="Z28" t="n">
-        <v>16</v>
+        <v>222</v>
       </c>
       <c r="AA28" t="n">
-        <v>71</v>
+        <v>92</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2020-03-29</t>
+          <t>2020-03-27</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>日</t>
+          <t>五</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -2828,61 +2828,61 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>1075</v>
+        <v>17918</v>
       </c>
       <c r="E29" t="n">
-        <v>2</v>
+        <v>93</v>
       </c>
       <c r="F29" t="n">
-        <v>75</v>
+        <v>8258</v>
       </c>
       <c r="G29" t="n">
-        <v>7</v>
+        <v>46.1</v>
       </c>
       <c r="H29" t="n">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="I29" t="n">
-        <v>280</v>
+        <v>4235</v>
       </c>
       <c r="J29" t="n">
-        <v>26</v>
+        <v>23.6</v>
       </c>
       <c r="K29" t="n">
+        <v>13</v>
+      </c>
+      <c r="L29" t="n">
+        <v>1550</v>
+      </c>
+      <c r="M29" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
         <v>5</v>
       </c>
-      <c r="L29" t="n">
-        <v>720</v>
-      </c>
-      <c r="M29" t="n">
-        <v>67</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>860</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>3015</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>16.8</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2894,21 +2894,21 @@
         <v>0</v>
       </c>
       <c r="Z29" t="n">
-        <v>14</v>
+        <v>188</v>
       </c>
       <c r="AA29" t="n">
-        <v>77</v>
+        <v>95</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2020-03-30</t>
+          <t>2020-03-28</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>一</t>
+          <t>六</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -2917,34 +2917,34 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>1105</v>
+        <v>24309</v>
       </c>
       <c r="E30" t="n">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="F30" t="n">
-        <v>535</v>
+        <v>7224</v>
       </c>
       <c r="G30" t="n">
-        <v>48.4</v>
+        <v>29.7</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>70</v>
       </c>
       <c r="I30" t="n">
-        <v>90</v>
+        <v>7735</v>
       </c>
       <c r="J30" t="n">
-        <v>8.1</v>
+        <v>31.8</v>
       </c>
       <c r="K30" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L30" t="n">
-        <v>480</v>
+        <v>1230</v>
       </c>
       <c r="M30" t="n">
-        <v>43.4</v>
+        <v>5.1</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -2956,22 +2956,22 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>2315</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>5805</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>23.9</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
@@ -2983,21 +2983,21 @@
         <v>0</v>
       </c>
       <c r="Z30" t="n">
-        <v>22</v>
+        <v>173</v>
       </c>
       <c r="AA30" t="n">
-        <v>50</v>
+        <v>141</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2020-03-31</t>
+          <t>2020-03-29</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>二</t>
+          <t>日</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -3006,34 +3006,34 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>885</v>
+        <v>30065</v>
       </c>
       <c r="E31" t="n">
-        <v>5</v>
+        <v>70</v>
       </c>
       <c r="F31" t="n">
-        <v>155</v>
+        <v>11000</v>
       </c>
       <c r="G31" t="n">
-        <v>17.5</v>
+        <v>36.6</v>
       </c>
       <c r="H31" t="n">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="I31" t="n">
-        <v>355</v>
+        <v>6585</v>
       </c>
       <c r="J31" t="n">
-        <v>40.1</v>
+        <v>21.9</v>
       </c>
       <c r="K31" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="L31" t="n">
-        <v>375</v>
+        <v>4435</v>
       </c>
       <c r="M31" t="n">
-        <v>42.4</v>
+        <v>14.8</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -3045,22 +3045,22 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>1040</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>7005</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>23.3</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3072,91 +3072,269 @@
         <v>0</v>
       </c>
       <c r="Z31" t="n">
-        <v>18</v>
+        <v>189</v>
       </c>
       <c r="AA31" t="n">
-        <v>49</v>
+        <v>159</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr"/>
-      <c r="B32" t="inlineStr"/>
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>一</t>
+        </is>
+      </c>
       <c r="C32" t="inlineStr">
         <is>
+          <t>拉亞農安</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>24150</v>
+      </c>
+      <c r="E32" t="n">
+        <v>109</v>
+      </c>
+      <c r="F32" t="n">
+        <v>9615</v>
+      </c>
+      <c r="G32" t="n">
+        <v>39.8</v>
+      </c>
+      <c r="H32" t="n">
+        <v>49</v>
+      </c>
+      <c r="I32" t="n">
+        <v>3815</v>
+      </c>
+      <c r="J32" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="K32" t="n">
+        <v>10</v>
+      </c>
+      <c r="L32" t="n">
+        <v>2635</v>
+      </c>
+      <c r="M32" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>9</v>
+      </c>
+      <c r="R32" t="n">
+        <v>1890</v>
+      </c>
+      <c r="S32" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="T32" t="n">
+        <v>43</v>
+      </c>
+      <c r="U32" t="n">
+        <v>6195</v>
+      </c>
+      <c r="V32" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0</v>
+      </c>
+      <c r="X32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>220</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>二</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>拉亞農安</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>20450</v>
+      </c>
+      <c r="E33" t="n">
+        <v>92</v>
+      </c>
+      <c r="F33" t="n">
+        <v>9390</v>
+      </c>
+      <c r="G33" t="n">
+        <v>45.9</v>
+      </c>
+      <c r="H33" t="n">
+        <v>86</v>
+      </c>
+      <c r="I33" t="n">
+        <v>5765</v>
+      </c>
+      <c r="J33" t="n">
+        <v>28.2</v>
+      </c>
+      <c r="K33" t="n">
+        <v>8</v>
+      </c>
+      <c r="L33" t="n">
+        <v>780</v>
+      </c>
+      <c r="M33" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>4</v>
+      </c>
+      <c r="R33" t="n">
+        <v>840</v>
+      </c>
+      <c r="S33" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="T33" t="n">
+        <v>23</v>
+      </c>
+      <c r="U33" t="n">
+        <v>3675</v>
+      </c>
+      <c r="V33" t="n">
+        <v>18</v>
+      </c>
+      <c r="W33" t="n">
+        <v>0</v>
+      </c>
+      <c r="X33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>213</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr"/>
+      <c r="B34" t="inlineStr"/>
+      <c r="C34" t="inlineStr">
+        <is>
           <t>小計</t>
         </is>
       </c>
-      <c r="D32" t="n">
-        <v>35000</v>
-      </c>
-      <c r="E32" t="n">
-        <v>194</v>
-      </c>
-      <c r="F32" t="n">
-        <v>8100</v>
-      </c>
-      <c r="G32" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="H32" t="n">
-        <v>213</v>
-      </c>
-      <c r="I32" t="n">
-        <v>9280</v>
-      </c>
-      <c r="J32" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="K32" t="n">
-        <v>171</v>
-      </c>
-      <c r="L32" t="n">
-        <v>17620</v>
-      </c>
-      <c r="M32" t="n">
-        <v>50.3</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0</v>
-      </c>
-      <c r="R32" t="n">
-        <v>0</v>
-      </c>
-      <c r="S32" t="n">
-        <v>0</v>
-      </c>
-      <c r="T32" t="n">
-        <v>0</v>
-      </c>
-      <c r="U32" t="n">
-        <v>0</v>
-      </c>
-      <c r="V32" t="n">
-        <v>0</v>
-      </c>
-      <c r="W32" t="n">
-        <v>0</v>
-      </c>
-      <c r="X32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z32" t="n">
-        <v>578</v>
-      </c>
-      <c r="AA32" t="n">
-        <v>61</v>
+      <c r="D34" t="n">
+        <v>676840</v>
+      </c>
+      <c r="E34" t="n">
+        <v>2456</v>
+      </c>
+      <c r="F34" t="n">
+        <v>274492</v>
+      </c>
+      <c r="G34" t="n">
+        <v>40.6</v>
+      </c>
+      <c r="H34" t="n">
+        <v>2269</v>
+      </c>
+      <c r="I34" t="n">
+        <v>178003</v>
+      </c>
+      <c r="J34" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="K34" t="n">
+        <v>371</v>
+      </c>
+      <c r="L34" t="n">
+        <v>43945</v>
+      </c>
+      <c r="M34" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>282</v>
+      </c>
+      <c r="R34" t="n">
+        <v>64150</v>
+      </c>
+      <c r="S34" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="T34" t="n">
+        <v>728</v>
+      </c>
+      <c r="U34" t="n">
+        <v>116250</v>
+      </c>
+      <c r="V34" t="n">
+        <v>17.2</v>
+      </c>
+      <c r="W34" t="n">
+        <v>0</v>
+      </c>
+      <c r="X34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>6106</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
